--- a/Dekningsanalyse/Dekningsoversikt pr datasett.xlsx
+++ b/Dekningsanalyse/Dekningsoversikt pr datasett.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="260">
   <si>
     <t>Dekningsoversikt</t>
   </si>
@@ -501,13 +501,319 @@
   </si>
   <si>
     <t>md_naturt_utv</t>
+  </si>
+  <si>
+    <t>Statens Kartverk</t>
+  </si>
+  <si>
+    <t>FKB AR5</t>
+  </si>
+  <si>
+    <t>fkb_ar5</t>
+  </si>
+  <si>
+    <t>FKB Adresse</t>
+  </si>
+  <si>
+    <t>FKB Arealbruk</t>
+  </si>
+  <si>
+    <t>FKB Bane</t>
+  </si>
+  <si>
+    <t>FKB BygnAnlegg</t>
+  </si>
+  <si>
+    <t>fkb_adresse</t>
+  </si>
+  <si>
+    <t>fkb_arealbruk</t>
+  </si>
+  <si>
+    <t>fkb_bane</t>
+  </si>
+  <si>
+    <t>fkb_bygnanlegg</t>
+  </si>
+  <si>
+    <t>Landsdekkende</t>
+  </si>
+  <si>
+    <t>FKB Bygning</t>
+  </si>
+  <si>
+    <t>fkb_bygning</t>
+  </si>
+  <si>
+    <t>FKB Bygningspunkt</t>
+  </si>
+  <si>
+    <t>fkb_bygningspunkt</t>
+  </si>
+  <si>
+    <t>Kildetype</t>
+  </si>
+  <si>
+    <t>WFS</t>
+  </si>
+  <si>
+    <t>Oppdateringstype</t>
+  </si>
+  <si>
+    <t>Oppdateringsfrekvens</t>
+  </si>
+  <si>
+    <t>Metadatakatalogen (parsing av XML)</t>
+  </si>
+  <si>
+    <t>FKB Høydekurve 5m</t>
+  </si>
+  <si>
+    <t>fkb_hoydekurve-5m</t>
+  </si>
+  <si>
+    <t>FKB Høydekurve</t>
+  </si>
+  <si>
+    <t>fkb_hoydekurve</t>
+  </si>
+  <si>
+    <t>FKB Ledning</t>
+  </si>
+  <si>
+    <t>FKB LedningVa</t>
+  </si>
+  <si>
+    <t>FKB Lufthavn</t>
+  </si>
+  <si>
+    <t>FKB Matrikkelkart DEKTeig</t>
+  </si>
+  <si>
+    <t>FKB Naturinfo</t>
+  </si>
+  <si>
+    <t>FKB PblTiltak</t>
+  </si>
+  <si>
+    <t>FKB Servitutt</t>
+  </si>
+  <si>
+    <t>FKB Tekst1000</t>
+  </si>
+  <si>
+    <t>FKB Tekst5000</t>
+  </si>
+  <si>
+    <t>FKB TraktorvegSti</t>
+  </si>
+  <si>
+    <t>FKB Vann</t>
+  </si>
+  <si>
+    <t>FKB Vbase</t>
+  </si>
+  <si>
+    <t>FKB Veg</t>
+  </si>
+  <si>
+    <t>fkb_ledning</t>
+  </si>
+  <si>
+    <t>fkb_ledningva</t>
+  </si>
+  <si>
+    <t>fkb_lufthavn</t>
+  </si>
+  <si>
+    <t>fkb_naturinfo</t>
+  </si>
+  <si>
+    <t>fkb_pbltiltak</t>
+  </si>
+  <si>
+    <t>fkb_servitutt</t>
+  </si>
+  <si>
+    <t>fkb_tekst1000</t>
+  </si>
+  <si>
+    <t>fkb_tekst5000</t>
+  </si>
+  <si>
+    <t>fkb_traktorvegsti</t>
+  </si>
+  <si>
+    <t>fkb_vann</t>
+  </si>
+  <si>
+    <t>fkb_vbase</t>
+  </si>
+  <si>
+    <t>fkb_veg</t>
+  </si>
+  <si>
+    <t>fkb_matrikkelkartdekteig</t>
+  </si>
+  <si>
+    <t>ArcGIS Server Rest (ESRI JSON)</t>
+  </si>
+  <si>
+    <t>Tekstfil tolket som CSV i FME</t>
+  </si>
+  <si>
+    <t>Automatisk</t>
+  </si>
+  <si>
+    <t>Statisk</t>
+  </si>
+  <si>
+    <t>Automatisk?</t>
+  </si>
+  <si>
+    <t>Må avklares</t>
+  </si>
+  <si>
+    <t>Landbruksdirektoratet</t>
+  </si>
+  <si>
+    <t>Reinbeitedistrikt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinbeiteområde </t>
+  </si>
+  <si>
+    <t>Reindriftsanlegg</t>
+  </si>
+  <si>
+    <t>Beitehage</t>
+  </si>
+  <si>
+    <t>Flyttlei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trekklei </t>
+  </si>
+  <si>
+    <t>Oppsamlingsområde</t>
+  </si>
+  <si>
+    <t>Vårbeite</t>
+  </si>
+  <si>
+    <t>Sommerbeite</t>
+  </si>
+  <si>
+    <t>Høstbeite</t>
+  </si>
+  <si>
+    <t>Høstvinterbeite</t>
+  </si>
+  <si>
+    <t>Vinterbeite</t>
+  </si>
+  <si>
+    <t>Siidagrense</t>
+  </si>
+  <si>
+    <t>Konvensjonsområde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konsesjonsområder </t>
+  </si>
+  <si>
+    <t>Restriksjonsområder</t>
+  </si>
+  <si>
+    <t>Tamreinlag (Filefjell, Fram, Vaga og Lom)</t>
+  </si>
+  <si>
+    <t>Restriksjonsgrense</t>
+  </si>
+  <si>
+    <t>Rendal renselskap</t>
+  </si>
+  <si>
+    <t>Trollheimen</t>
+  </si>
+  <si>
+    <t>Avtaleområder</t>
+  </si>
+  <si>
+    <t>Ekspropriasjonsområder</t>
+  </si>
+  <si>
+    <t>ldir_reinbeitedistrikt</t>
+  </si>
+  <si>
+    <t>ldir_reinbeiteområde</t>
+  </si>
+  <si>
+    <t>ldir_reindriftsanlegg</t>
+  </si>
+  <si>
+    <t>ldir_beitehage</t>
+  </si>
+  <si>
+    <t>ldir_flyttlei</t>
+  </si>
+  <si>
+    <t>ldir_trekklei</t>
+  </si>
+  <si>
+    <t>ldir_sommerbeite</t>
+  </si>
+  <si>
+    <t>ldir_høstbeite</t>
+  </si>
+  <si>
+    <t>ldir_høstvinterbeite</t>
+  </si>
+  <si>
+    <t>ldir_vinterbeite</t>
+  </si>
+  <si>
+    <t>ldir_siidagrense</t>
+  </si>
+  <si>
+    <t>ldir_restriksjonsgrense</t>
+  </si>
+  <si>
+    <t>ldir_trollheimen</t>
+  </si>
+  <si>
+    <t>ldir_avtaleområder</t>
+  </si>
+  <si>
+    <t>ldir_tamreinlag</t>
+  </si>
+  <si>
+    <t>ldir_rendal</t>
+  </si>
+  <si>
+    <t>ldir_ekspropriasjonsomrader</t>
+  </si>
+  <si>
+    <t>ldir_restriksjonsomrader</t>
+  </si>
+  <si>
+    <t>ldir_konsesjonsomrader</t>
+  </si>
+  <si>
+    <t>ldir_konvensjonsomrade</t>
+  </si>
+  <si>
+    <t>ldir_varbeite</t>
+  </si>
+  <si>
+    <t>ldir_oppsamlingsomrade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,16 +836,271 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -547,17 +1108,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="38">
+    <cellStyle name="20% - uthevingsfarge 1 2" xfId="23"/>
+    <cellStyle name="20% - uthevingsfarge 2 2" xfId="24"/>
+    <cellStyle name="20% - uthevingsfarge 3 2" xfId="25"/>
+    <cellStyle name="20% - uthevingsfarge 4 2" xfId="26"/>
+    <cellStyle name="40% - uthevingsfarge 3 2" xfId="27"/>
+    <cellStyle name="60% - uthevingsfarge 3 2" xfId="28"/>
+    <cellStyle name="60% - uthevingsfarge 4 2" xfId="29"/>
+    <cellStyle name="60% - uthevingsfarge 6 2" xfId="30"/>
+    <cellStyle name="Beregning" xfId="10" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Dårlig" xfId="6" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Forklarende tekst" xfId="14" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="God" xfId="5" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperkobling 2" xfId="31"/>
+    <cellStyle name="Hyperkobling 3" xfId="32"/>
+    <cellStyle name="Inndata" xfId="8" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Koblet celle" xfId="11" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Kontrollcelle" xfId="12" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Merknad 2" xfId="33"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="34"/>
+    <cellStyle name="Normal 3" xfId="35"/>
+    <cellStyle name="Normal 4" xfId="36"/>
+    <cellStyle name="Normal 5" xfId="22"/>
+    <cellStyle name="Nøytral" xfId="7" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Overskrift 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Overskrift 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Overskrift 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Overskrift 4" xfId="4" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Tittel 2" xfId="37"/>
+    <cellStyle name="Totalt" xfId="15" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Utdata" xfId="9" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge1" xfId="16" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge2" xfId="17" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge3" xfId="18" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge4" xfId="19" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge5" xfId="20" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Uthevingsfarge6" xfId="21" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Varseltekst" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,26 +1583,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,10 +1614,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -878,8 +1636,17 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -889,8 +1656,17 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -900,8 +1676,17 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -911,8 +1696,17 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -922,8 +1716,17 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -933,8 +1736,17 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -944,8 +1756,17 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -955,8 +1776,17 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -966,8 +1796,17 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -977,8 +1816,17 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -988,8 +1836,17 @@
       <c r="C14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -999,8 +1856,17 @@
       <c r="C15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1010,8 +1876,17 @@
       <c r="C16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1021,8 +1896,17 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1032,8 +1916,17 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1043,8 +1936,17 @@
       <c r="C19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1054,8 +1956,17 @@
       <c r="C20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1065,8 +1976,17 @@
       <c r="C21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1076,8 +1996,17 @@
       <c r="C22" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E22" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1087,8 +2016,17 @@
       <c r="C23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" t="s">
+        <v>211</v>
+      </c>
+      <c r="F23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1098,8 +2036,17 @@
       <c r="C24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1109,8 +2056,17 @@
       <c r="C25" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1120,8 +2076,17 @@
       <c r="C26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +2096,17 @@
       <c r="C27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -1142,8 +2116,17 @@
       <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +2136,17 @@
       <c r="C29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1164,8 +2156,17 @@
       <c r="C30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1175,8 +2176,17 @@
       <c r="C31" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1186,8 +2196,17 @@
       <c r="C32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1197,8 +2216,17 @@
       <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" t="s">
+        <v>211</v>
+      </c>
+      <c r="F33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1209,10 +2237,19 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F34" t="s">
+        <v>214</v>
+      </c>
+      <c r="G34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -1222,8 +2259,17 @@
       <c r="C35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1233,8 +2279,17 @@
       <c r="C36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -1244,8 +2299,17 @@
       <c r="C37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1255,8 +2319,17 @@
       <c r="C38" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -1266,8 +2339,17 @@
       <c r="C39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -1277,8 +2359,17 @@
       <c r="C40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1288,8 +2379,17 @@
       <c r="C41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +2399,17 @@
       <c r="C42" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1310,8 +2419,17 @@
       <c r="C43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1322,10 +2440,19 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F44" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1336,10 +2463,19 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +2485,17 @@
       <c r="C46" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1360,8 +2505,17 @@
       <c r="C47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1371,8 +2525,17 @@
       <c r="C48" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1382,8 +2545,17 @@
       <c r="C49" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1393,8 +2565,17 @@
       <c r="C50" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1404,8 +2585,17 @@
       <c r="C51" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1415,8 +2605,17 @@
       <c r="C52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>209</v>
+      </c>
+      <c r="E52" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1426,8 +2625,17 @@
       <c r="C53" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1437,8 +2645,17 @@
       <c r="C54" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>209</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1448,8 +2665,17 @@
       <c r="C55" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>209</v>
+      </c>
+      <c r="E55" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1459,8 +2685,17 @@
       <c r="C56" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>209</v>
+      </c>
+      <c r="E56" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1470,8 +2705,17 @@
       <c r="C57" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -1481,8 +2725,17 @@
       <c r="C58" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1492,8 +2745,17 @@
       <c r="C59" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>209</v>
+      </c>
+      <c r="E59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -1503,8 +2765,17 @@
       <c r="C60" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -1514,8 +2785,17 @@
       <c r="C61" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>210</v>
+      </c>
+      <c r="E61" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -1525,8 +2805,17 @@
       <c r="C62" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" t="s">
+        <v>212</v>
+      </c>
+      <c r="F62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -1536,8 +2825,17 @@
       <c r="C63" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -1547,8 +2845,17 @@
       <c r="C64" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -1558,8 +2865,17 @@
       <c r="C65" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -1569,8 +2885,17 @@
       <c r="C66" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" t="s">
+        <v>211</v>
+      </c>
+      <c r="F66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -1580,8 +2905,17 @@
       <c r="C67" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -1591,8 +2925,17 @@
       <c r="C68" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -1602,8 +2945,17 @@
       <c r="C69" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -1613,8 +2965,17 @@
       <c r="C70" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -1624,8 +2985,17 @@
       <c r="C71" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -1635,8 +3005,17 @@
       <c r="C72" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>211</v>
+      </c>
+      <c r="F72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>135</v>
       </c>
@@ -1646,8 +3025,17 @@
       <c r="C73" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -1656,6 +3044,937 @@
       </c>
       <c r="C74" t="s">
         <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E74" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" t="s">
+        <v>214</v>
+      </c>
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" t="s">
+        <v>178</v>
+      </c>
+      <c r="E78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" t="s">
+        <v>168</v>
+      </c>
+      <c r="D79" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" t="s">
+        <v>213</v>
+      </c>
+      <c r="F79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+      <c r="D80" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" t="s">
+        <v>214</v>
+      </c>
+      <c r="G81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82" t="s">
+        <v>178</v>
+      </c>
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" t="s">
+        <v>214</v>
+      </c>
+      <c r="G83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+      <c r="C84" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>158</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E86" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>214</v>
+      </c>
+      <c r="G87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" t="s">
+        <v>200</v>
+      </c>
+      <c r="D89" t="s">
+        <v>178</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" t="s">
+        <v>178</v>
+      </c>
+      <c r="E90" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" t="s">
+        <v>178</v>
+      </c>
+      <c r="E91" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>203</v>
+      </c>
+      <c r="D92" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>214</v>
+      </c>
+      <c r="G92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" t="s">
+        <v>214</v>
+      </c>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>158</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" t="s">
+        <v>178</v>
+      </c>
+      <c r="E94" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" t="s">
+        <v>178</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>214</v>
+      </c>
+      <c r="G95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" t="s">
+        <v>178</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" t="s">
+        <v>214</v>
+      </c>
+      <c r="G96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" t="s">
+        <v>178</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" t="s">
+        <v>178</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" t="s">
+        <v>178</v>
+      </c>
+      <c r="E102" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>215</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s">
+        <v>245</v>
+      </c>
+      <c r="D106" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" t="s">
+        <v>213</v>
+      </c>
+      <c r="F108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
+      <c r="C109" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E109" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>215</v>
+      </c>
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
+      <c r="C110" t="s">
+        <v>257</v>
+      </c>
+      <c r="D110" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>255</v>
+      </c>
+      <c r="D112" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" t="s">
+        <v>213</v>
+      </c>
+      <c r="F112" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>215</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D113" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" t="s">
+        <v>213</v>
+      </c>
+      <c r="F113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" t="s">
+        <v>213</v>
+      </c>
+      <c r="F114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" t="s">
+        <v>253</v>
+      </c>
+      <c r="D115" t="s">
+        <v>178</v>
+      </c>
+      <c r="E115" t="s">
+        <v>213</v>
+      </c>
+      <c r="F115" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>215</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" t="s">
+        <v>178</v>
+      </c>
+      <c r="E116" t="s">
+        <v>213</v>
+      </c>
+      <c r="F116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" t="s">
+        <v>213</v>
+      </c>
+      <c r="F117" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>215</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" t="s">
+        <v>213</v>
+      </c>
+      <c r="F118" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/Dekningsanalyse/Dekningsoversikt pr datasett.xlsx
+++ b/Dekningsanalyse/Dekningsoversikt pr datasett.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="271">
   <si>
     <t>Dekningsoversikt</t>
   </si>
@@ -419,9 +419,6 @@
     <t>dsb_storulykkeanlegg</t>
   </si>
   <si>
-    <t>Eksposivanlegg</t>
-  </si>
-  <si>
     <t>dsb_eksplosivanlegg</t>
   </si>
   <si>
@@ -746,9 +743,6 @@
     <t>ldir_reinbeitedistrikt</t>
   </si>
   <si>
-    <t>ldir_reinbeiteområde</t>
-  </si>
-  <si>
     <t>ldir_reindriftsanlegg</t>
   </si>
   <si>
@@ -764,12 +758,6 @@
     <t>ldir_sommerbeite</t>
   </si>
   <si>
-    <t>ldir_høstbeite</t>
-  </si>
-  <si>
-    <t>ldir_høstvinterbeite</t>
-  </si>
-  <si>
     <t>ldir_vinterbeite</t>
   </si>
   <si>
@@ -782,9 +770,6 @@
     <t>ldir_trollheimen</t>
   </si>
   <si>
-    <t>ldir_avtaleområder</t>
-  </si>
-  <si>
     <t>ldir_tamreinlag</t>
   </si>
   <si>
@@ -807,13 +792,61 @@
   </si>
   <si>
     <t>ldir_oppsamlingsomrade</t>
+  </si>
+  <si>
+    <t>ldir_reinbeiteomrade</t>
+  </si>
+  <si>
+    <t>ldir_hostbeite</t>
+  </si>
+  <si>
+    <t>ldir_hostvinterbeite</t>
+  </si>
+  <si>
+    <t>ldir_avtaleomrader</t>
+  </si>
+  <si>
+    <t>Ingen data i metadatakatalogen</t>
+  </si>
+  <si>
+    <t>Forsvaret</t>
+  </si>
+  <si>
+    <t>Støysoner skytefelt</t>
+  </si>
+  <si>
+    <t>Avinor</t>
+  </si>
+  <si>
+    <t>Støysoner flyplasser</t>
+  </si>
+  <si>
+    <t>forsvaret_stoysoner</t>
+  </si>
+  <si>
+    <t>avinor_stoysoner</t>
+  </si>
+  <si>
+    <t>Esri Filgeodatabase</t>
+  </si>
+  <si>
+    <t>Manuell</t>
+  </si>
+  <si>
+    <t>Eksplosivanlegg</t>
+  </si>
+  <si>
+    <t>Må avklare med dataeier om det er greit å eksponere dekningsoversikt for disse</t>
+  </si>
+  <si>
+    <t>Må avklares (DSB eskplosivanlegg etc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +1010,12 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1262,10 +1301,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="20% - uthevingsfarge 1 2" xfId="23"/>
@@ -1583,10 +1624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,12 +1639,12 @@
     <col min="7" max="7" width="64" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1614,19 +1655,19 @@
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1637,16 +1678,16 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1657,16 +1698,16 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1677,16 +1718,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1697,16 +1738,16 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1717,16 +1758,19 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="H8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1737,16 +1781,16 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1757,16 +1801,16 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1777,16 +1821,16 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1797,16 +1841,16 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1817,16 +1861,16 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1837,16 +1881,16 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1857,16 +1901,16 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1877,13 +1921,13 @@
         <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,13 +1941,13 @@
         <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,13 +1961,13 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1937,13 +1981,13 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1957,13 +2001,13 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1977,13 +2021,13 @@
         <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1997,13 +2041,13 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2017,13 +2061,13 @@
         <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,13 +2081,13 @@
         <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,13 +2101,13 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,13 +2121,13 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2097,13 +2141,13 @@
         <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2117,13 +2161,13 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2137,13 +2181,13 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,13 +2201,13 @@
         <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2177,13 +2221,13 @@
         <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,13 +2241,13 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2217,13 +2261,13 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2237,13 +2281,13 @@
         <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G34" t="s">
         <v>72</v>
@@ -2260,13 +2304,13 @@
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2280,13 +2324,13 @@
         <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2300,13 +2344,13 @@
         <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2320,13 +2364,13 @@
         <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2340,13 +2384,13 @@
         <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2360,13 +2404,13 @@
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2380,13 +2424,13 @@
         <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2400,13 +2444,13 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2420,13 +2464,13 @@
         <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2440,13 +2484,13 @@
         <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G44" t="s">
         <v>92</v>
@@ -2463,13 +2507,13 @@
         <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
         <v>99</v>
@@ -2486,13 +2530,13 @@
         <v>98</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -2506,13 +2550,13 @@
         <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -2526,16 +2570,16 @@
         <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2546,16 +2590,16 @@
         <v>105</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2566,16 +2610,16 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2586,16 +2630,16 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2606,16 +2650,16 @@
         <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2626,16 +2670,16 @@
         <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2646,16 +2690,16 @@
         <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2666,16 +2710,16 @@
         <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F55" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2686,16 +2730,16 @@
         <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F56" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2706,16 +2750,16 @@
         <v>123</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2726,16 +2770,16 @@
         <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2746,16 +2790,16 @@
         <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2766,16 +2810,19 @@
         <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G60" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2786,1197 +2833,1223 @@
         <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="G61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" t="s">
         <v>130</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>131</v>
       </c>
-      <c r="D62" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" t="s">
-        <v>212</v>
-      </c>
-      <c r="F62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
         <v>132</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>133</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>134</v>
       </c>
-      <c r="D63" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>135</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>136</v>
       </c>
-      <c r="C64" t="s">
-        <v>137</v>
-      </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
         <v>138</v>
       </c>
-      <c r="C65" t="s">
-        <v>139</v>
-      </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D66" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" t="s">
         <v>158</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>159</v>
       </c>
-      <c r="C75" t="s">
-        <v>160</v>
-      </c>
       <c r="D75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F78" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" t="s">
+        <v>177</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G79" t="s">
         <v>168</v>
-      </c>
-      <c r="D79" t="s">
-        <v>178</v>
-      </c>
-      <c r="E79" t="s">
-        <v>213</v>
-      </c>
-      <c r="F79" t="s">
-        <v>214</v>
-      </c>
-      <c r="G79" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
         <v>170</v>
       </c>
-      <c r="C80" t="s">
-        <v>171</v>
-      </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F80" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
         <v>172</v>
       </c>
-      <c r="C81" t="s">
-        <v>173</v>
-      </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="s">
         <v>179</v>
       </c>
-      <c r="C82" t="s">
-        <v>180</v>
-      </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
         <v>181</v>
       </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G83" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E88" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F89" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F90" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F91" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D94" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" t="s">
         <v>215</v>
       </c>
-      <c r="B97" t="s">
-        <v>216</v>
-      </c>
       <c r="C97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E99" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B100" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B103" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E103" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E104" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B112" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" t="s">
+        <v>250</v>
+      </c>
+      <c r="D112" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C112" t="s">
-        <v>255</v>
-      </c>
-      <c r="D112" t="s">
-        <v>178</v>
-      </c>
-      <c r="E112" t="s">
-        <v>213</v>
-      </c>
-      <c r="F112" t="s">
+      <c r="C113" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>215</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="B114" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C113" t="s">
-        <v>252</v>
-      </c>
-      <c r="D113" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113" t="s">
-        <v>213</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="C114" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>215</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="B115" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>214</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" t="s">
+        <v>177</v>
+      </c>
+      <c r="E117" t="s">
+        <v>212</v>
+      </c>
+      <c r="F117" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>214</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" t="s">
         <v>249</v>
       </c>
-      <c r="D114" t="s">
-        <v>178</v>
-      </c>
-      <c r="E114" t="s">
-        <v>213</v>
-      </c>
-      <c r="F114" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>215</v>
-      </c>
-      <c r="B115" t="s">
-        <v>234</v>
-      </c>
-      <c r="C115" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" t="s">
-        <v>178</v>
-      </c>
-      <c r="E115" t="s">
-        <v>213</v>
-      </c>
-      <c r="F115" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>215</v>
-      </c>
-      <c r="B116" t="s">
-        <v>235</v>
-      </c>
-      <c r="C116" t="s">
-        <v>250</v>
-      </c>
-      <c r="D116" t="s">
-        <v>178</v>
-      </c>
-      <c r="E116" t="s">
-        <v>213</v>
-      </c>
-      <c r="F116" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>215</v>
-      </c>
-      <c r="B117" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" t="s">
-        <v>251</v>
-      </c>
-      <c r="D117" t="s">
-        <v>178</v>
-      </c>
-      <c r="E117" t="s">
-        <v>213</v>
-      </c>
-      <c r="F117" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>215</v>
-      </c>
-      <c r="B118" t="s">
-        <v>237</v>
-      </c>
-      <c r="C118" t="s">
-        <v>254</v>
-      </c>
       <c r="D118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
-      </c>
-    </row>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
